--- a/5. DataAnalysis_Part2/Семинар5_задание1.xlsx
+++ b/5. DataAnalysis_Part2/Семинар5_задание1.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Обучение\Разработчик\Аналитик\Основы анализа данных в Excel (семинары)\05. Анализ «что если». Надстройки MS Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE91D2-4833-42DD-95AA-A634FDD8C1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1870D74-1D0B-4F9B-801E-06741B5B70B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Данные" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId3"/>
+    <sheet name="Данные" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_Семинар5_задание1.xlsxДолжности1" hidden="1">Должности[]</definedName>
     <definedName name="_xlcn.WorksheetConnection_Семинар5_задание1.xlsxКафедра1" hidden="1">Кафедра[]</definedName>
     <definedName name="_xlcn.WorksheetConnection_Семинар5_задание1.xlsxРасходы1" hidden="1">Расходы[]</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Лист3!$A$3:$E$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="19" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,21 +46,21 @@
         </x15:modelRelationships>
       </x15:dataModel>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{FAC47078-4440-4C7A-983E-F04007754244}" keepAlive="1" name="ThisWorkbookDataModel" description="Модель данных" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+  <connection id="1" xr16:uid="{3CF7D2F7-F245-426D-A374-EB39B9F0E5AD}" keepAlive="1" name="ModelConnection_ExternalData_1" description="Модель данных" type="5" refreshedVersion="8" minRefreshableVersion="5" saveData="1">
+    <dbPr connection="Data Model Connection" command="DRILLTHROUGH MAXROWS 1000 SELECT FROM [Model] WHERE ([Measures].[Сумма по столбцу Командировочные расходы]) RETURN [$Расходы].[ID],[$Расходы].[Код кафедры],[$Расходы].[Код должности],[$Расходы].[Зарплата],[$Расходы].[Командировочные расходы]" commandType="4"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{C6870E38-9E5C-497E-B4B8-C7D058573D94}" keepAlive="1" name="ThisWorkbookDataModel" description="Модель данных" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -61,7 +69,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" xr16:uid="{0F46A8BF-136A-4250-9EC4-DB93B4F69191}" name="WorksheetConnection_Семинар5_задание1.xlsx!Должности" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="3" xr16:uid="{0F46A8BF-136A-4250-9EC4-DB93B4F69191}" name="WorksheetConnection_Семинар5_задание1.xlsx!Должности" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Должности">
@@ -70,7 +78,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="3" xr16:uid="{C2C63706-3993-4DD7-97EE-2400A071F294}" name="WorksheetConnection_Семинар5_задание1.xlsx!Кафедра" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="4" xr16:uid="{C2C63706-3993-4DD7-97EE-2400A071F294}" name="WorksheetConnection_Семинар5_задание1.xlsx!Кафедра" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Кафедра">
@@ -79,7 +87,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="4" xr16:uid="{3C9D8579-3650-478A-80E8-4A8136211F96}" name="WorksheetConnection_Семинар5_задание1.xlsx!Расходы" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="5" xr16:uid="{3C9D8579-3650-478A-80E8-4A8136211F96}" name="WorksheetConnection_Семинар5_задание1.xlsx!Расходы" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Расходы">
@@ -92,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -147,6 +155,36 @@
   <si>
     <t>Профессор</t>
   </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Расходы[ID]</t>
+  </si>
+  <si>
+    <t>Расходы[Код кафедры]</t>
+  </si>
+  <si>
+    <t>Расходы[Код должности]</t>
+  </si>
+  <si>
+    <t>Расходы[Зарплата]</t>
+  </si>
+  <si>
+    <t>Расходы[Командировочные расходы]</t>
+  </si>
+  <si>
+    <t>Возвращены данные для Сумма по столбцу Командировочные расходы (первые 1000 строк).</t>
+  </si>
+  <si>
+    <t>Среднее по столбцу Командировочные расходы</t>
+  </si>
+  <si>
+    <t>Средние командировочные с разбивкой по кафедрам</t>
+  </si>
 </sst>
 </file>
 
@@ -155,8 +193,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -178,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -186,26 +232,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -229,6 +396,14 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -242,8 +417,1347 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy=" " refreshedDate="45126.336399884261" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="154" xr:uid="{A0790414-E0FF-41F6-A27C-1400345B8A1D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Расходы"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="154"/>
+    </cacheField>
+    <cacheField name="Код кафедры" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="Код должности" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Зарплата" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="53845" maxValue="167278"/>
+    </cacheField>
+    <cacheField name="Командировочные расходы" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1001" maxValue="1997"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy=" " refreshedDate="45126.340002777775" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{BFF20401-946C-4F2E-8136-2236B2FF3B86}">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="2">
+    <cacheField name="[Кафедра].[Название].[Название]" caption="Название" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="6">
+        <s v="Аналитика"/>
+        <s v="Бизнес"/>
+        <s v="Бухгалтерский учет"/>
+        <s v="Маркетинг"/>
+        <s v="Менеджмент"/>
+        <s v="Финансы"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Среднее по столбцу Командировочные расходы]" caption="Среднее по столбцу Командировочные расходы" numFmtId="0" hierarchy="14" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="15">
+    <cacheHierarchy uniqueName="[Должности].[Код должности]" caption="Код должности" attribute="1" defaultMemberUniqueName="[Должности].[Код должности].[All]" allUniqueName="[Должности].[Код должности].[All]" dimensionUniqueName="[Должности]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Должности].[Уровень]" caption="Уровень" attribute="1" defaultMemberUniqueName="[Должности].[Уровень].[All]" allUniqueName="[Должности].[Уровень].[All]" dimensionUniqueName="[Должности]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Кафедра].[Код кафедры]" caption="Код кафедры" attribute="1" defaultMemberUniqueName="[Кафедра].[Код кафедры].[All]" allUniqueName="[Кафедра].[Код кафедры].[All]" dimensionUniqueName="[Кафедра]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Кафедра].[Название]" caption="Название" attribute="1" defaultMemberUniqueName="[Кафедра].[Название].[All]" allUniqueName="[Кафедра].[Название].[All]" dimensionUniqueName="[Кафедра]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Расходы].[ID]" caption="ID" attribute="1" defaultMemberUniqueName="[Расходы].[ID].[All]" allUniqueName="[Расходы].[ID].[All]" dimensionUniqueName="[Расходы]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Расходы].[Код кафедры]" caption="Код кафедры" attribute="1" defaultMemberUniqueName="[Расходы].[Код кафедры].[All]" allUniqueName="[Расходы].[Код кафедры].[All]" dimensionUniqueName="[Расходы]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Расходы].[Код должности]" caption="Код должности" attribute="1" defaultMemberUniqueName="[Расходы].[Код должности].[All]" allUniqueName="[Расходы].[Код должности].[All]" dimensionUniqueName="[Расходы]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Расходы].[Зарплата]" caption="Зарплата" attribute="1" defaultMemberUniqueName="[Расходы].[Зарплата].[All]" allUniqueName="[Расходы].[Зарплата].[All]" dimensionUniqueName="[Расходы]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Расходы].[Командировочные расходы]" caption="Командировочные расходы" attribute="1" defaultMemberUniqueName="[Расходы].[Командировочные расходы].[All]" allUniqueName="[Расходы].[Командировочные расходы].[All]" dimensionUniqueName="[Расходы]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Расходы]" caption="__XL_Count Расходы" measure="1" displayFolder="" measureGroup="Расходы" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Кафедра]" caption="__XL_Count Кафедра" measure="1" displayFolder="" measureGroup="Кафедра" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Должности]" caption="__XL_Count Должности" measure="1" displayFolder="" measureGroup="Должности" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Командировочные расходы]" caption="Сумма по столбцу Командировочные расходы" measure="1" displayFolder="" measureGroup="Расходы" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="8"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Среднее по столбцу Командировочные расходы]" caption="Среднее по столбцу Командировочные расходы" measure="1" displayFolder="" measureGroup="Расходы" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="8"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="4">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Должности" uniqueName="[Должности]" caption="Должности"/>
+    <dimension name="Кафедра" uniqueName="[Кафедра]" caption="Кафедра"/>
+    <dimension name="Расходы" uniqueName="[Расходы]" caption="Расходы"/>
+  </dimensions>
+  <measureGroups count="3">
+    <measureGroup name="Должности" caption="Должности"/>
+    <measureGroup name="Кафедра" caption="Кафедра"/>
+    <measureGroup name="Расходы" caption="Расходы"/>
+  </measureGroups>
+  <maps count="5">
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="1" dimension="2"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="154">
+  <r>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="58947"/>
+    <n v="1150"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="104403"/>
+    <n v="1381"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="115221"/>
+    <n v="1960"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="98668"/>
+    <n v="1783"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="84129"/>
+    <n v="1991"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="115277"/>
+    <n v="1944"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="148659"/>
+    <n v="1831"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="74654"/>
+    <n v="1189"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="116806"/>
+    <n v="1738"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="107404"/>
+    <n v="1377"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="68546"/>
+    <n v="1915"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="89697"/>
+    <n v="1397"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="76179"/>
+    <n v="1823"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="95353"/>
+    <n v="1735"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="57995"/>
+    <n v="1921"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="70659"/>
+    <n v="1135"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="151566"/>
+    <n v="1846"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="99533"/>
+    <n v="1038"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="161347"/>
+    <n v="1428"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="115322"/>
+    <n v="1303"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="92785"/>
+    <n v="1365"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="89567"/>
+    <n v="1989"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="93620"/>
+    <n v="1336"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="67907"/>
+    <n v="1427"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="86755"/>
+    <n v="1875"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="91688"/>
+    <n v="1579"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="114255"/>
+    <n v="1011"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="84049"/>
+    <n v="1813"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="107382"/>
+    <n v="1718"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="96822"/>
+    <n v="1997"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="99252"/>
+    <n v="1285"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="104213"/>
+    <n v="1291"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="121471"/>
+    <n v="1270"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="53845"/>
+    <n v="1076"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="80750"/>
+    <n v="1504"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="81230"/>
+    <n v="1686"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="123309"/>
+    <n v="1795"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="93479"/>
+    <n v="1234"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="147953"/>
+    <n v="1090"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="114110"/>
+    <n v="1365"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="95103"/>
+    <n v="1906"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="141258"/>
+    <n v="1462"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="112401"/>
+    <n v="1996"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="81119"/>
+    <n v="1153"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="108763"/>
+    <n v="1647"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="146871"/>
+    <n v="1458"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="149673"/>
+    <n v="1250"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="116557"/>
+    <n v="1461"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="87861"/>
+    <n v="1001"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="72575"/>
+    <n v="1548"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="137427"/>
+    <n v="1693"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="130957"/>
+    <n v="1383"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="82094"/>
+    <n v="1665"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="141319"/>
+    <n v="1650"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="137701"/>
+    <n v="1198"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="109201"/>
+    <n v="1974"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="136890"/>
+    <n v="1289"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="114882"/>
+    <n v="1657"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="77612"/>
+    <n v="1556"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="126160"/>
+    <n v="1722"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="127722"/>
+    <n v="1410"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="89991"/>
+    <n v="1545"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="64472"/>
+    <n v="1418"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="83015"/>
+    <n v="1776"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="97318"/>
+    <n v="1563"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="82686"/>
+    <n v="1477"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="101120"/>
+    <n v="1717"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="82451"/>
+    <n v="1353"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="108674"/>
+    <n v="1403"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="67770"/>
+    <n v="1916"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="113495"/>
+    <n v="1918"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="104610"/>
+    <n v="1342"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="66034"/>
+    <n v="1787"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="92574"/>
+    <n v="1456"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="120304"/>
+    <n v="1399"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="115362"/>
+    <n v="1177"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="105343"/>
+    <n v="1032"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="57670"/>
+    <n v="1501"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="91844"/>
+    <n v="1102"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="97437"/>
+    <n v="1083"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="56020"/>
+    <n v="1390"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="63531"/>
+    <n v="1699"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="117854"/>
+    <n v="1331"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="120005"/>
+    <n v="1026"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="95595"/>
+    <n v="1859"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="97754"/>
+    <n v="1080"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="123970"/>
+    <n v="1239"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="111826"/>
+    <n v="1038"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="94196"/>
+    <n v="1011"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="123678"/>
+    <n v="1882"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="104606"/>
+    <n v="1504"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="86250"/>
+    <n v="1225"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="116191"/>
+    <n v="1798"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="116698"/>
+    <n v="1180"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="125449"/>
+    <n v="1051"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="65513"/>
+    <n v="1183"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="129839"/>
+    <n v="1297"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="55960"/>
+    <n v="1808"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="98656"/>
+    <n v="1858"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="101275"/>
+    <n v="1372"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="87880"/>
+    <n v="1691"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="70087"/>
+    <n v="1733"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="86690"/>
+    <n v="1242"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="96858"/>
+    <n v="1248"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="140375"/>
+    <n v="1662"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="140792"/>
+    <n v="1321"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="117802"/>
+    <n v="1832"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="68919"/>
+    <n v="1429"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="112389"/>
+    <n v="1241"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="82400"/>
+    <n v="1406"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="60497"/>
+    <n v="1884"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="94502"/>
+    <n v="1016"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="144600"/>
+    <n v="1492"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="87817"/>
+    <n v="1243"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="127098"/>
+    <n v="1632"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="100998"/>
+    <n v="1746"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <n v="6"/>
+    <n v="2"/>
+    <n v="87792"/>
+    <n v="1433"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <n v="6"/>
+    <n v="1"/>
+    <n v="54653"/>
+    <n v="1815"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="120948"/>
+    <n v="1359"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="119534"/>
+    <n v="1886"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="105879"/>
+    <n v="1572"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="78018"/>
+    <n v="1191"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="122556"/>
+    <n v="1897"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="149724"/>
+    <n v="1965"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="114135"/>
+    <n v="1820"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="129092"/>
+    <n v="1861"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="113944"/>
+    <n v="1613"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="108312"/>
+    <n v="1247"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="88387"/>
+    <n v="1911"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="144912"/>
+    <n v="1492"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="117671"/>
+    <n v="1940"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="107299"/>
+    <n v="1530"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="66721"/>
+    <n v="1087"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="81335"/>
+    <n v="1268"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="103987"/>
+    <n v="1296"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="98136"/>
+    <n v="1592"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="143788"/>
+    <n v="1274"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="104157"/>
+    <n v="1496"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="90134"/>
+    <n v="1453"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="85335"/>
+    <n v="1679"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="90289"/>
+    <n v="1398"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="87104"/>
+    <n v="1624"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="119968"/>
+    <n v="1832"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="103322"/>
+    <n v="1078"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="116651"/>
+    <n v="1832"/>
+  </r>
+  <r>
+    <n v="146"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="126770"/>
+    <n v="1710"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="121103"/>
+    <n v="1511"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="167278"/>
+    <n v="1061"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="119835"/>
+    <n v="1878"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="73252"/>
+    <n v="1478"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="104836"/>
+    <n v="1874"/>
+  </r>
+  <r>
+    <n v="152"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="107793"/>
+    <n v="1396"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="126231"/>
+    <n v="1280"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="112158"/>
+    <n v="1428"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8B80B0E-8B14-4E3C-9544-847EBD3660B0}" name="Сводная таблица2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Среднее по столбцу Командировочные расходы" fld="1" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotHierarchies count="15">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Среднее по столбцу Командировочные расходы"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings>
+        <x15:activeTabTopLevelEntity name="[Расходы]"/>
+        <x15:activeTabTopLevelEntity name="[Кафедра]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE9ABE82-154A-4513-B9B4-A406B486895C}" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" connectionId="1" xr16:uid="{C3E12730-0680-4AAB-B254-15E4E5324AAA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="6">
+    <queryTableFields count="5">
+      <queryTableField id="1" name="Расходы[ID]" tableColumnId="1"/>
+      <queryTableField id="2" name="Расходы[Код кафедры]" tableColumnId="2"/>
+      <queryTableField id="3" name="Расходы[Код должности]" tableColumnId="3"/>
+      <queryTableField id="4" name="Расходы[Зарплата]" tableColumnId="4"/>
+      <queryTableField id="5" name="Расходы[Командировочные расходы]" tableColumnId="5"/>
+    </queryTableFields>
+  </queryTableRefresh>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{883FBD77-0823-4a55-B5E3-86C4891E6966}">
+      <x15:queryTable drillThrough="1"/>
+    </ext>
+  </extLst>
+</queryTable>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C8FE33D-0509-43F4-A6AF-0AA6CF6F69FF}" name="Расходы" displayName="Расходы" ref="D3:H157" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D64F9FD1-2B28-46A8-9054-5B6B0D4DA8AA}" name="Таблица_ExternalData_1" displayName="Таблица_ExternalData_1" ref="A3:E157" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A3:E157" xr:uid="{D64F9FD1-2B28-46A8-9054-5B6B0D4DA8AA}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1B2E7F11-4DEE-4E77-9CB7-5472ED27E4B8}" uniqueName="1" name="Расходы[ID]" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{14E3787B-04D6-4D81-A01B-2E5613AEAFA6}" uniqueName="2" name="Расходы[Код кафедры]" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{BE6FFDD3-B8D8-4F47-8F51-6C10D51BB956}" uniqueName="3" name="Расходы[Код должности]" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{A189B222-BB05-4FF9-A239-AA645DB99327}" uniqueName="4" name="Расходы[Зарплата]" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{61C62AD0-4FA5-438C-8BB6-FF6A1A2DDFAE}" uniqueName="5" name="Расходы[Командировочные расходы]" queryTableFieldId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C8FE33D-0509-43F4-A6AF-0AA6CF6F69FF}" name="Расходы" displayName="Расходы" ref="D3:H157" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="D3:H157" xr:uid="{7C8FE33D-0509-43F4-A6AF-0AA6CF6F69FF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AE6ECD78-6A64-45C1-8B9F-5FBE8B32BAD1}" name="ID"/>
@@ -256,8 +1770,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{294A08E3-C3A1-4201-B652-2E706C73F378}" name="Кафедра" displayName="Кафедра" ref="K6:L12" totalsRowShown="0" headerRowDxfId="1">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{294A08E3-C3A1-4201-B652-2E706C73F378}" name="Кафедра" displayName="Кафедра" ref="K6:L12" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="K6:L12" xr:uid="{294A08E3-C3A1-4201-B652-2E706C73F378}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{584E68EA-EB76-4816-A3A7-3F57EAABE705}" name="Код кафедры"/>
@@ -267,8 +1781,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78DAB577-4333-4CC4-976F-0B9D5C4443BF}" name="Должности" displayName="Должности" ref="K14:L19" totalsRowShown="0" headerRowDxfId="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78DAB577-4333-4CC4-976F-0B9D5C4443BF}" name="Должности" displayName="Должности" ref="K14:L19" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="K14:L19" xr:uid="{78DAB577-4333-4CC4-976F-0B9D5C4443BF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{29C78CB8-66C1-4DBA-A40E-F434910DCF7A}" name="Код должности"/>
@@ -540,11 +2054,2867 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25ACDBCE-7D82-4684-802E-6D8627A7E2EF}">
+  <dimension ref="A1:E157"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>58947</v>
+      </c>
+      <c r="E4">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>104403</v>
+      </c>
+      <c r="E5">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>115221</v>
+      </c>
+      <c r="E6">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>98668</v>
+      </c>
+      <c r="E7">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>84129</v>
+      </c>
+      <c r="E8">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>115277</v>
+      </c>
+      <c r="E9">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>148659</v>
+      </c>
+      <c r="E10">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>74654</v>
+      </c>
+      <c r="E11">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>116806</v>
+      </c>
+      <c r="E12">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>107404</v>
+      </c>
+      <c r="E13">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>68546</v>
+      </c>
+      <c r="E14">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>89697</v>
+      </c>
+      <c r="E15">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>76179</v>
+      </c>
+      <c r="E16">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>95353</v>
+      </c>
+      <c r="E17">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>57995</v>
+      </c>
+      <c r="E18">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>70659</v>
+      </c>
+      <c r="E19">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>151566</v>
+      </c>
+      <c r="E20">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>99533</v>
+      </c>
+      <c r="E21">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>161347</v>
+      </c>
+      <c r="E22">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>115322</v>
+      </c>
+      <c r="E23">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>92785</v>
+      </c>
+      <c r="E24">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>89567</v>
+      </c>
+      <c r="E25">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>93620</v>
+      </c>
+      <c r="E26">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>67907</v>
+      </c>
+      <c r="E27">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>86755</v>
+      </c>
+      <c r="E28">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>91688</v>
+      </c>
+      <c r="E29">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>114255</v>
+      </c>
+      <c r="E30">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>84049</v>
+      </c>
+      <c r="E31">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>107382</v>
+      </c>
+      <c r="E32">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>96822</v>
+      </c>
+      <c r="E33">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>99252</v>
+      </c>
+      <c r="E34">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>104213</v>
+      </c>
+      <c r="E35">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>121471</v>
+      </c>
+      <c r="E36">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>53845</v>
+      </c>
+      <c r="E37">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>80750</v>
+      </c>
+      <c r="E38">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>81230</v>
+      </c>
+      <c r="E39">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>123309</v>
+      </c>
+      <c r="E40">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>93479</v>
+      </c>
+      <c r="E41">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>147953</v>
+      </c>
+      <c r="E42">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>114110</v>
+      </c>
+      <c r="E43">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>95103</v>
+      </c>
+      <c r="E44">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>141258</v>
+      </c>
+      <c r="E45">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>112401</v>
+      </c>
+      <c r="E46">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>81119</v>
+      </c>
+      <c r="E47">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>108763</v>
+      </c>
+      <c r="E48">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>146871</v>
+      </c>
+      <c r="E49">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>149673</v>
+      </c>
+      <c r="E50">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>116557</v>
+      </c>
+      <c r="E51">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>87861</v>
+      </c>
+      <c r="E52">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>72575</v>
+      </c>
+      <c r="E53">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>137427</v>
+      </c>
+      <c r="E54">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>130957</v>
+      </c>
+      <c r="E55">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>82094</v>
+      </c>
+      <c r="E56">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>141319</v>
+      </c>
+      <c r="E57">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>137701</v>
+      </c>
+      <c r="E58">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>109201</v>
+      </c>
+      <c r="E59">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>136890</v>
+      </c>
+      <c r="E60">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>114882</v>
+      </c>
+      <c r="E61">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>77612</v>
+      </c>
+      <c r="E62">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>126160</v>
+      </c>
+      <c r="E63">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>127722</v>
+      </c>
+      <c r="E64">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>89991</v>
+      </c>
+      <c r="E65">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>64472</v>
+      </c>
+      <c r="E66">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>83015</v>
+      </c>
+      <c r="E67">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>97318</v>
+      </c>
+      <c r="E68">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>82686</v>
+      </c>
+      <c r="E69">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>101120</v>
+      </c>
+      <c r="E70">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>82451</v>
+      </c>
+      <c r="E71">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>108674</v>
+      </c>
+      <c r="E72">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>67770</v>
+      </c>
+      <c r="E73">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>113495</v>
+      </c>
+      <c r="E74">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>104610</v>
+      </c>
+      <c r="E75">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>66034</v>
+      </c>
+      <c r="E76">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>92574</v>
+      </c>
+      <c r="E77">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>120304</v>
+      </c>
+      <c r="E78">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>115362</v>
+      </c>
+      <c r="E79">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>105343</v>
+      </c>
+      <c r="E80">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>57670</v>
+      </c>
+      <c r="E81">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>91844</v>
+      </c>
+      <c r="E82">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>97437</v>
+      </c>
+      <c r="E83">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>56020</v>
+      </c>
+      <c r="E84">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>63531</v>
+      </c>
+      <c r="E85">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>117854</v>
+      </c>
+      <c r="E86">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>120005</v>
+      </c>
+      <c r="E87">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>95595</v>
+      </c>
+      <c r="E88">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>97754</v>
+      </c>
+      <c r="E89">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>123970</v>
+      </c>
+      <c r="E90">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>111826</v>
+      </c>
+      <c r="E91">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>94196</v>
+      </c>
+      <c r="E92">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>123678</v>
+      </c>
+      <c r="E93">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>104606</v>
+      </c>
+      <c r="E94">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>86250</v>
+      </c>
+      <c r="E95">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>116191</v>
+      </c>
+      <c r="E96">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>116698</v>
+      </c>
+      <c r="E97">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>125449</v>
+      </c>
+      <c r="E98">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>65513</v>
+      </c>
+      <c r="E99">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>129839</v>
+      </c>
+      <c r="E100">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>55960</v>
+      </c>
+      <c r="E101">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>98656</v>
+      </c>
+      <c r="E102">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>101275</v>
+      </c>
+      <c r="E103">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>87880</v>
+      </c>
+      <c r="E104">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>70087</v>
+      </c>
+      <c r="E105">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>86690</v>
+      </c>
+      <c r="E106">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>96858</v>
+      </c>
+      <c r="E107">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>140375</v>
+      </c>
+      <c r="E108">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>140792</v>
+      </c>
+      <c r="E109">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>117802</v>
+      </c>
+      <c r="E110">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>68919</v>
+      </c>
+      <c r="E111">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>112389</v>
+      </c>
+      <c r="E112">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>82400</v>
+      </c>
+      <c r="E113">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>60497</v>
+      </c>
+      <c r="E114">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>94502</v>
+      </c>
+      <c r="E115">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>144600</v>
+      </c>
+      <c r="E116">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>6</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>87817</v>
+      </c>
+      <c r="E117">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>127098</v>
+      </c>
+      <c r="E118">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>100998</v>
+      </c>
+      <c r="E119">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>87792</v>
+      </c>
+      <c r="E120">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>54653</v>
+      </c>
+      <c r="E121">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>120948</v>
+      </c>
+      <c r="E122">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>119534</v>
+      </c>
+      <c r="E123">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>105879</v>
+      </c>
+      <c r="E124">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>78018</v>
+      </c>
+      <c r="E125">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>122556</v>
+      </c>
+      <c r="E126">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>149724</v>
+      </c>
+      <c r="E127">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>114135</v>
+      </c>
+      <c r="E128">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>129092</v>
+      </c>
+      <c r="E129">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>113944</v>
+      </c>
+      <c r="E130">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>108312</v>
+      </c>
+      <c r="E131">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>88387</v>
+      </c>
+      <c r="E132">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>144912</v>
+      </c>
+      <c r="E133">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>117671</v>
+      </c>
+      <c r="E134">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>107299</v>
+      </c>
+      <c r="E135">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>66721</v>
+      </c>
+      <c r="E136">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>81335</v>
+      </c>
+      <c r="E137">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>103987</v>
+      </c>
+      <c r="E138">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>98136</v>
+      </c>
+      <c r="E139">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>143788</v>
+      </c>
+      <c r="E140">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>104157</v>
+      </c>
+      <c r="E141">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>90134</v>
+      </c>
+      <c r="E142">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>85335</v>
+      </c>
+      <c r="E143">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>90289</v>
+      </c>
+      <c r="E144">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>87104</v>
+      </c>
+      <c r="E145">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>119968</v>
+      </c>
+      <c r="E146">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>103322</v>
+      </c>
+      <c r="E147">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>116651</v>
+      </c>
+      <c r="E148">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>126770</v>
+      </c>
+      <c r="E149">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>121103</v>
+      </c>
+      <c r="E150">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>167278</v>
+      </c>
+      <c r="E151">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>119835</v>
+      </c>
+      <c r="E152">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>73252</v>
+      </c>
+      <c r="E153">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>104836</v>
+      </c>
+      <c r="E154">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>107793</v>
+      </c>
+      <c r="E155">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>126231</v>
+      </c>
+      <c r="E156">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>112158</v>
+      </c>
+      <c r="E157">
+        <v>1428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEE3BDB-F3AA-47B9-ABB7-475ED061B731}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1592.8888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1460.608695652174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1425.608695652174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1543.4333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1432.5555555555557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1508.7077922077922</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707C9F31-51CE-42D7-9D31-70329813A60C}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
